--- a/biology/Médecine/Lecanemab/Lecanemab.xlsx
+++ b/biology/Médecine/Lecanemab/Lecanemab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lécanémab (code BAN2401) est un médicament développé conjointement par Biogen et Eisai commercialisé sous le nom de Leqembi aux États-Unis qui a fait l'objet d'essais cliniques pour le traitement de la maladie d'Alzheimer en phase précoce[1],[2]. Il s'agit d'une version humanisée[3] d'un anticorps de souris mAb158 qui reconnaît les protofibrilles et prévient le dépôt de bêta-amyloïde de la maladie d'Alzheimer[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lécanémab (code BAN2401) est un médicament développé conjointement par Biogen et Eisai commercialisé sous le nom de Leqembi aux États-Unis qui a fait l'objet d'essais cliniques pour le traitement de la maladie d'Alzheimer en phase précoce,. Il s'agit d'une version humanisée d'un anticorps de souris mAb158 qui reconnaît les protofibrilles et prévient le dépôt de bêta-amyloïde de la maladie d'Alzheimer.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,11 +551,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En juillet 2022, la Food and Drug Administration (FDA) des États-Unis a accepté une demande d'approbation accélérée pour le lécanémab et lui a accordé le statut d'examen prioritaire[5].
-Le 27 septembre 2022, Biogen a annoncé[5],[6] les résultats positifs d'un essai clinique de phase 3 en cours[7], montrant une diminution d'approximativement 27 % du déclin cognitif[8]. Selon le professeur Victor Henderson, directeur du Centre de recherche sur la maladie d'Alzheimer à l'université de Stanford, les effets signalés jusqu'à présent sont très faibles et donc insuffisants pour être considérés comme cliniquement importants[9]. Les changements minimaux de 0,98 et 1,63 dans le déficit cognitif léger et la maladie d'Alzheimer légère, respectivement, sont considérés comme significatifs sur une échelle d'évaluation[10]. Après 18 mois de traitement avec le lécanémab, les différences de 0,35 et 0,62 pour ceux qui présentaient un léger déficit cognitif et une maladie d'Alzheimer légère, respectivement, ne représente qu'un tiers du minimum de ce qui pourrait être considérée comme une différence cliniquement importante[11]. Par ailleurs, il semble affaiblir les parois des vaisseaux sanguins du cerveau et ainsi causer une hémorragie potentiellement mortelle quand des médicaments anticoagulants sont utilisés[12].
-Il est autorisé le 6 janvier 2023 par la FDA[13] et devient ainsi, malgré ses limitations et l'absence de bénéfice clinique démontré, le premier traitement disponible contre la maladie d'Alzheimer depuis l'échec relatif de l'aducanumab également de Biogen (autorisé en 2021 et commercialisé sous le nom d'Adulhem) dans la même classe thérapeutique[14],[15].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juillet 2022, la Food and Drug Administration (FDA) des États-Unis a accepté une demande d'approbation accélérée pour le lécanémab et lui a accordé le statut d'examen prioritaire.
+Le 27 septembre 2022, Biogen a annoncé, les résultats positifs d'un essai clinique de phase 3 en cours, montrant une diminution d'approximativement 27 % du déclin cognitif. Selon le professeur Victor Henderson, directeur du Centre de recherche sur la maladie d'Alzheimer à l'université de Stanford, les effets signalés jusqu'à présent sont très faibles et donc insuffisants pour être considérés comme cliniquement importants. Les changements minimaux de 0,98 et 1,63 dans le déficit cognitif léger et la maladie d'Alzheimer légère, respectivement, sont considérés comme significatifs sur une échelle d'évaluation. Après 18 mois de traitement avec le lécanémab, les différences de 0,35 et 0,62 pour ceux qui présentaient un léger déficit cognitif et une maladie d'Alzheimer légère, respectivement, ne représente qu'un tiers du minimum de ce qui pourrait être considérée comme une différence cliniquement importante. Par ailleurs, il semble affaiblir les parois des vaisseaux sanguins du cerveau et ainsi causer une hémorragie potentiellement mortelle quand des médicaments anticoagulants sont utilisés.
+Il est autorisé le 6 janvier 2023 par la FDA et devient ainsi, malgré ses limitations et l'absence de bénéfice clinique démontré, le premier traitement disponible contre la maladie d'Alzheimer depuis l'échec relatif de l'aducanumab également de Biogen (autorisé en 2021 et commercialisé sous le nom d'Adulhem) dans la même classe thérapeutique,.
 </t>
         </is>
       </c>
@@ -571,6 +587,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -593,13 +611,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Chimie</t>
+          <t>Propriétés pharmacologiques</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Structure et réactivité
-Synthèse</t>
+          <t>Effets secondaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'effet secondaire le plus fréquent est la présence d'anomalies à l'IRM cérébrale, le plus souvent sans conséquence. Il semble exister une augmentation du risque de survenue d'une hémorragie cérébrale, surtout chez les patients sous anticoagulant oral.
+</t>
         </is>
       </c>
     </row>
@@ -629,12 +653,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mécanisme d'action
-Pharmacocinétique
-Indications thérapeutiques
-Effets secondaires
-L'effet secondaire le plus fréquent est la présence d'anomalies à l'IRM cérébrale, le plus souvent sans conséquence. Il semble exister une augmentation du risque de survenue d'une hémorragie cérébrale, surtout chez les patients sous anticoagulant oral[16].
-Contre-indications, précautions d'emploi et effets indésirables
+          <t>Contre-indications, précautions d'emploi et effets indésirables</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
